--- a/data/trans_orig/DC-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DC-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9565C5D-73D1-4DAF-9C73-62D4B0687C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DAB17F4-A566-4A2C-A71A-6D377F465B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B59C6F9-1343-42F9-95A4-0186FB96213C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE9E7F79-15EF-49BE-9055-16CFE343A017}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="724">
   <si>
     <t>Población con dolor crónico en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,1915 +89,1942 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>1,5%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
     <t>82,42%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>Población con dolor crónico en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
   </si>
   <si>
     <t>63,19%</t>
@@ -2595,7 +2622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F25113-A2BF-4781-A2F8-B9CF21384C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89737425-D65C-4236-9257-0209A132E932}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3248,13 +3275,13 @@
         <v>7165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3266,10 +3293,10 @@
         <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3311,13 @@
         <v>6077</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
         <v>29</v>
@@ -3544,10 +3571,10 @@
         <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3556,13 +3583,13 @@
         <v>25223</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -3571,7 +3598,7 @@
         <v>31175</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>127</v>
@@ -3798,13 +3825,13 @@
         <v>10746</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3813,13 +3840,13 @@
         <v>7084</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -3828,7 +3855,7 @@
         <v>17830</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>157</v>
@@ -3870,7 +3897,7 @@
         <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>228</v>
@@ -3879,13 +3906,13 @@
         <v>229644</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3927,13 @@
         <v>263320</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H27" s="7">
         <v>274</v>
@@ -3915,13 +3942,13 @@
         <v>279901</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M27" s="7">
         <v>542</v>
@@ -3930,13 +3957,13 @@
         <v>543221</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,7 +4019,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4010,7 +4037,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4055,13 +4082,13 @@
         <v>5736</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H30" s="7">
         <v>23</v>
@@ -4070,13 +4097,13 @@
         <v>23668</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4085,13 +4112,13 @@
         <v>29403</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4133,13 @@
         <v>151248</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H31" s="7">
         <v>239</v>
@@ -4121,13 +4148,13 @@
         <v>242127</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M31" s="7">
         <v>401</v>
@@ -4136,13 +4163,13 @@
         <v>393375</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4184,13 @@
         <v>345482</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>399</v>
@@ -4172,13 +4199,13 @@
         <v>411047</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M32" s="7">
         <v>754</v>
@@ -4187,13 +4214,13 @@
         <v>756529</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -4279,10 +4306,10 @@
         <v>119</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -4291,13 +4318,13 @@
         <v>13626</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4339,13 @@
         <v>34988</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H35" s="7">
         <v>133</v>
@@ -4327,13 +4354,13 @@
         <v>136417</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>168</v>
@@ -4342,13 +4369,13 @@
         <v>171405</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4390,13 @@
         <v>538745</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7">
         <v>778</v>
@@ -4378,13 +4405,13 @@
         <v>791554</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>1324</v>
@@ -4393,13 +4420,13 @@
         <v>1330299</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4441,13 @@
         <v>2702811</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H37" s="7">
         <v>2372</v>
@@ -4429,28 +4456,28 @@
         <v>2437601</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M37" s="7">
         <v>5005</v>
       </c>
       <c r="N37" s="7">
-        <v>5140411</v>
+        <v>5140412</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,7 +4519,7 @@
         <v>6511</v>
       </c>
       <c r="N38" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -4506,7 +4533,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4528,7 +4555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A4467C-4E9B-471F-9E40-1B7E3C31F7DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16970754-D721-4845-95F1-2C52F8330491}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4545,7 +4572,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4658,7 +4685,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4667,13 +4694,13 @@
         <v>991</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4682,13 +4709,13 @@
         <v>991</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4730,13 @@
         <v>960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4718,13 +4745,13 @@
         <v>7824</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -4733,13 +4760,13 @@
         <v>8784</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4781,13 @@
         <v>16293</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>56</v>
@@ -4769,13 +4796,13 @@
         <v>58669</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -4784,13 +4811,13 @@
         <v>74962</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4832,13 @@
         <v>436893</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>356</v>
@@ -4820,13 +4847,13 @@
         <v>362747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M7" s="7">
         <v>786</v>
@@ -4835,13 +4862,13 @@
         <v>799640</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4951,13 @@
         <v>2015</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4945,7 +4972,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,7 +4993,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -4975,13 +5002,13 @@
         <v>14576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4990,13 +5017,13 @@
         <v>16379</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5038,13 @@
         <v>37693</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -5026,13 +5053,13 @@
         <v>72600</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -5041,13 +5068,13 @@
         <v>110293</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5089,13 @@
         <v>647591</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>487</v>
@@ -5077,13 +5104,13 @@
         <v>521064</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>1116</v>
@@ -5092,13 +5119,13 @@
         <v>1168656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5208,13 @@
         <v>7941</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5196,13 +5223,13 @@
         <v>7941</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5244,13 @@
         <v>3190</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -5232,13 +5259,13 @@
         <v>29987</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M15" s="7">
         <v>31</v>
@@ -5247,13 +5274,13 @@
         <v>33177</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5295,13 @@
         <v>47662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -5283,13 +5310,13 @@
         <v>105673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>148</v>
@@ -5298,13 +5325,13 @@
         <v>153335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5346,13 @@
         <v>631010</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>530</v>
@@ -5334,13 +5361,13 @@
         <v>567249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>1131</v>
@@ -5349,13 +5376,13 @@
         <v>1198259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,7 +5456,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5438,13 +5465,13 @@
         <v>1128</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5453,13 +5480,13 @@
         <v>1128</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,13 +5501,13 @@
         <v>3204</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -5489,13 +5516,13 @@
         <v>20868</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -5504,13 +5531,13 @@
         <v>24072</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,13 +5552,13 @@
         <v>57199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="H21" s="7">
         <v>97</v>
@@ -5540,13 +5567,13 @@
         <v>106938</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -5555,13 +5582,13 @@
         <v>164137</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,13 +5603,13 @@
         <v>554214</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H22" s="7">
         <v>424</v>
@@ -5591,13 +5618,13 @@
         <v>487265</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M22" s="7">
         <v>916</v>
@@ -5606,13 +5633,13 @@
         <v>1041479</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,7 +5728,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5737,7 +5764,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -5746,13 +5773,13 @@
         <v>13906</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -5761,13 +5788,13 @@
         <v>15010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5809,13 @@
         <v>56127</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>104</v>
@@ -5797,13 +5824,13 @@
         <v>115975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -5812,13 +5839,13 @@
         <v>172102</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5860,13 @@
         <v>372199</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="H27" s="7">
         <v>289</v>
@@ -5848,13 +5875,13 @@
         <v>317918</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M27" s="7">
         <v>627</v>
@@ -5863,13 +5890,13 @@
         <v>690117</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,7 +5952,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -5952,13 +5979,13 @@
         <v>4401</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>370</v>
+        <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>16</v>
+        <v>378</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -5967,13 +5994,13 @@
         <v>4401</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>379</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +6015,13 @@
         <v>8669</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -6003,13 +6030,13 @@
         <v>29095</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="M30" s="7">
         <v>34</v>
@@ -6018,13 +6045,13 @@
         <v>37765</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>326</v>
+        <v>386</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>376</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>377</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6066,13 @@
         <v>120374</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H31" s="7">
         <v>238</v>
@@ -6054,13 +6081,13 @@
         <v>255696</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="M31" s="7">
         <v>348</v>
@@ -6069,13 +6096,13 @@
         <v>376070</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6090,13 +6117,13 @@
         <v>430593</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H32" s="7">
         <v>425</v>
@@ -6105,13 +6132,13 @@
         <v>453783</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M32" s="7">
         <v>812</v>
@@ -6120,13 +6147,13 @@
         <v>884376</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,7 +6227,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -6209,13 +6236,13 @@
         <v>16476</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -6227,10 +6254,10 @@
         <v>150</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>176</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6272,13 @@
         <v>18930</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H35" s="7">
         <v>107</v>
@@ -6260,13 +6287,13 @@
         <v>116256</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="M35" s="7">
         <v>124</v>
@@ -6275,13 +6302,13 @@
         <v>135186</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6323,13 @@
         <v>335348</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H36" s="7">
         <v>664</v>
@@ -6311,13 +6338,13 @@
         <v>715551</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M36" s="7">
         <v>979</v>
@@ -6326,13 +6353,13 @@
         <v>1050899</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6374,13 @@
         <v>3072501</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="H37" s="7">
         <v>2511</v>
@@ -6362,13 +6389,13 @@
         <v>2710026</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="M37" s="7">
         <v>5388</v>
@@ -6377,13 +6404,13 @@
         <v>5782527</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,7 +6466,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6461,7 +6488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E161E-5A17-45C7-90B7-F5E3DE67B19E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8214943D-0A03-489E-9C70-C8D21BFF02CD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6478,7 +6505,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6606,7 +6633,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6651,13 +6678,13 @@
         <v>3930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6669,10 +6696,10 @@
         <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>425</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6714,13 @@
         <v>6128</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="H6" s="7">
         <v>35</v>
@@ -6702,13 +6729,13 @@
         <v>35012</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -6717,13 +6744,13 @@
         <v>41140</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>434</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6765,13 @@
         <v>413335</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>365</v>
@@ -6753,13 +6780,13 @@
         <v>356814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M7" s="7">
         <v>752</v>
@@ -6768,13 +6795,13 @@
         <v>770148</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,7 +6875,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>379</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -6863,7 +6890,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6878,7 +6905,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6920,13 @@
         <v>1231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -6908,13 +6935,13 @@
         <v>13833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>451</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6923,13 +6950,13 @@
         <v>15065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6971,13 @@
         <v>20596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>456</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H11" s="7">
         <v>63</v>
@@ -6959,13 +6986,13 @@
         <v>61738</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -6974,13 +7001,13 @@
         <v>82334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +7022,13 @@
         <v>568668</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>465</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="H12" s="7">
         <v>501</v>
@@ -7010,13 +7037,13 @@
         <v>487045</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="M12" s="7">
         <v>1049</v>
@@ -7025,13 +7052,13 @@
         <v>1055713</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,7 +7132,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7135,7 +7162,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7177,13 @@
         <v>5721</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>450</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -7165,13 +7192,13 @@
         <v>9540</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>477</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -7183,10 +7210,10 @@
         <v>121</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7228,13 @@
         <v>41659</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>469</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>482</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -7216,13 +7243,13 @@
         <v>71519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -7231,13 +7258,13 @@
         <v>113178</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7279,13 @@
         <v>621717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H17" s="7">
         <v>584</v>
@@ -7267,13 +7294,13 @@
         <v>580327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>482</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>1178</v>
@@ -7282,13 +7309,13 @@
         <v>1202044</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,7 +7389,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7371,13 +7398,13 @@
         <v>941</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>497</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -7392,7 +7419,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7434,13 @@
         <v>7257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>149</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -7422,13 +7449,13 @@
         <v>19348</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>242</v>
+        <v>499</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -7437,13 +7464,13 @@
         <v>26604</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7485,13 @@
         <v>55943</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="H21" s="7">
         <v>83</v>
@@ -7473,13 +7500,13 @@
         <v>89601</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="M21" s="7">
         <v>134</v>
@@ -7488,13 +7515,13 @@
         <v>145544</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7536,13 @@
         <v>582848</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="H22" s="7">
         <v>500</v>
@@ -7524,13 +7551,13 @@
         <v>539187</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="M22" s="7">
         <v>1024</v>
@@ -7539,13 +7566,13 @@
         <v>1122036</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,7 +7614,7 @@
         <v>1184</v>
       </c>
       <c r="N23" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -7619,7 +7646,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7628,13 +7655,13 @@
         <v>1159</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>521</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -7649,7 +7676,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7691,13 @@
         <v>6441</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -7679,13 +7706,13 @@
         <v>17096</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>323</v>
+        <v>411</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -7694,13 +7721,13 @@
         <v>23538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7742,13 @@
         <v>65883</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>531</v>
       </c>
       <c r="H26" s="7">
         <v>92</v>
@@ -7730,13 +7757,13 @@
         <v>104874</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="M26" s="7">
         <v>150</v>
@@ -7745,13 +7772,13 @@
         <v>170757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7793,13 @@
         <v>405594</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>528</v>
+        <v>289</v>
       </c>
       <c r="H27" s="7">
         <v>326</v>
@@ -7781,13 +7808,13 @@
         <v>373720</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="M27" s="7">
         <v>687</v>
@@ -7796,13 +7823,13 @@
         <v>779314</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,7 +7885,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -7876,7 +7903,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>535</v>
+        <v>246</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7885,13 +7912,13 @@
         <v>3550</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>536</v>
+        <v>271</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7900,13 +7927,13 @@
         <v>4524</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>397</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7948,13 @@
         <v>7227</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>537</v>
+        <v>299</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>538</v>
+        <v>377</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -7936,13 +7963,13 @@
         <v>44929</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="M30" s="7">
         <v>47</v>
@@ -7951,13 +7978,13 @@
         <v>52157</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7999,13 @@
         <v>102629</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="H31" s="7">
         <v>145</v>
@@ -7987,13 +8014,13 @@
         <v>173184</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="M31" s="7">
         <v>253</v>
@@ -8002,13 +8029,13 @@
         <v>275813</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>105</v>
+        <v>559</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8050,13 @@
         <v>480497</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="H32" s="7">
         <v>468</v>
@@ -8038,13 +8065,13 @@
         <v>556268</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="M32" s="7">
         <v>978</v>
@@ -8053,13 +8080,13 @@
         <v>1036765</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>388</v>
+        <v>569</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,13 +8154,13 @@
         <v>974</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -8148,7 +8175,7 @@
         <v>56</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>562</v>
+        <v>119</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -8157,13 +8184,13 @@
         <v>7551</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>564</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8205,13 @@
         <v>27878</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>565</v>
+        <v>28</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>396</v>
+        <v>268</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="H35" s="7">
         <v>99</v>
@@ -8193,13 +8220,13 @@
         <v>108676</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>568</v>
+        <v>180</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="M35" s="7">
         <v>125</v>
@@ -8208,13 +8235,13 @@
         <v>136554</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>569</v>
+        <v>331</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8229,13 +8256,13 @@
         <v>292839</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H36" s="7">
         <v>489</v>
@@ -8244,13 +8271,13 @@
         <v>535928</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>35</v>
+        <v>579</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="M36" s="7">
         <v>769</v>
@@ -8259,13 +8286,13 @@
         <v>828767</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8280,13 +8307,13 @@
         <v>3072659</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>582</v>
+        <v>470</v>
       </c>
       <c r="H37" s="7">
         <v>2744</v>
@@ -8295,13 +8322,13 @@
         <v>2893361</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M37" s="7">
         <v>5668</v>
@@ -8310,13 +8337,13 @@
         <v>5966020</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8372,7 +8399,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -8394,7 +8421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78260F63-DBCA-498C-BBBF-76373B621F8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D9DF2D-0829-47B2-A2A4-D9591C5A02E0}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8411,7 +8438,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8524,7 +8551,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>594</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8539,7 +8566,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>595</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8554,7 +8581,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,7 +8602,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>594</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8590,7 +8617,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>595</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8605,7 +8632,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8620,13 +8647,13 @@
         <v>28617</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="H6" s="7">
         <v>47</v>
@@ -8635,13 +8662,13 @@
         <v>83779</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="M6" s="7">
         <v>59</v>
@@ -8650,13 +8677,13 @@
         <v>112396</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8671,13 +8698,13 @@
         <v>349062</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="H7" s="7">
         <v>160</v>
@@ -8686,13 +8713,13 @@
         <v>271178</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="M7" s="7">
         <v>320</v>
@@ -8701,13 +8728,13 @@
         <v>620240</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8796,7 +8823,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>615</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -8811,7 +8838,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>608</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8847,7 +8874,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>288</v>
+        <v>615</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -8862,7 +8889,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>608</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8877,13 +8904,13 @@
         <v>42552</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -8892,13 +8919,13 @@
         <v>143464</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -8907,13 +8934,13 @@
         <v>186016</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>623</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8928,13 +8955,13 @@
         <v>385844</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="H12" s="7">
         <v>345</v>
@@ -8943,13 +8970,13 @@
         <v>355751</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="M12" s="7">
         <v>615</v>
@@ -8958,13 +8985,13 @@
         <v>741595</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9038,7 +9065,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9053,7 +9080,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9068,7 +9095,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9089,7 +9116,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -9104,7 +9131,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -9119,7 +9146,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9134,13 +9161,13 @@
         <v>79726</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="H16" s="7">
         <v>264</v>
@@ -9149,13 +9176,13 @@
         <v>176817</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="M16" s="7">
         <v>340</v>
@@ -9164,13 +9191,13 @@
         <v>256543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9185,13 +9212,13 @@
         <v>477526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="H17" s="7">
         <v>584</v>
@@ -9200,13 +9227,13 @@
         <v>433630</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="M17" s="7">
         <v>1054</v>
@@ -9215,13 +9242,13 @@
         <v>911156</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,7 +9352,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9376,7 +9403,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9391,13 +9418,13 @@
         <v>162571</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="H21" s="7">
         <v>426</v>
@@ -9406,13 +9433,13 @@
         <v>275092</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>647</v>
+        <v>161</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="M21" s="7">
         <v>583</v>
@@ -9421,13 +9448,13 @@
         <v>437663</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9442,13 +9469,13 @@
         <v>561419</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>660</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>661</v>
       </c>
       <c r="H22" s="7">
         <v>715</v>
@@ -9457,13 +9484,13 @@
         <v>472169</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="M22" s="7">
         <v>1223</v>
@@ -9472,13 +9499,13 @@
         <v>1033589</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9648,13 +9675,13 @@
         <v>178338</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="H26" s="7">
         <v>434</v>
@@ -9663,13 +9690,13 @@
         <v>262987</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="M26" s="7">
         <v>627</v>
@@ -9678,13 +9705,13 @@
         <v>441325</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9699,13 +9726,13 @@
         <v>421819</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="H27" s="7">
         <v>568</v>
@@ -9714,13 +9741,13 @@
         <v>334076</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="M27" s="7">
         <v>1038</v>
@@ -9729,13 +9756,13 @@
         <v>755895</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9791,7 +9818,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9824,7 +9851,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9875,7 +9902,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -9905,13 +9932,13 @@
         <v>244690</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="H31" s="7">
         <v>917</v>
@@ -9920,13 +9947,13 @@
         <v>604299</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="M31" s="7">
         <v>1279</v>
@@ -9935,13 +9962,13 @@
         <v>848989</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9956,13 +9983,13 @@
         <v>453064</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="H32" s="7">
         <v>791</v>
@@ -9971,13 +9998,13 @@
         <v>422338</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="M32" s="7">
         <v>1457</v>
@@ -9986,13 +10013,13 @@
         <v>875403</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10066,7 +10093,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10081,7 +10108,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -10096,7 +10123,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10117,7 +10144,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10132,7 +10159,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -10147,7 +10174,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10162,13 +10189,13 @@
         <v>736495</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="H36" s="7">
         <v>2204</v>
@@ -10177,13 +10204,13 @@
         <v>1546437</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="M36" s="7">
         <v>3036</v>
@@ -10192,13 +10219,13 @@
         <v>2282932</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10213,13 +10240,13 @@
         <v>2648733</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="H37" s="7">
         <v>3163</v>
@@ -10228,13 +10255,13 @@
         <v>2289144</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="M37" s="7">
         <v>5707</v>
@@ -10243,13 +10270,13 @@
         <v>4937877</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10305,7 +10332,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
